--- a/CapabilityStatement-server.xlsx
+++ b/CapabilityStatement-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cspears/dev/tools/CapStatement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02A038-74E3-3E4D-AEDC-FBDA15268912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B857899-47BD-7A44-AB8E-49A17C6AB805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32960" yWindow="-1100" windowWidth="29040" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39680" yWindow="-1600" windowWidth="29040" windowHeight="17800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,6 +89,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
+    <author>tc={4E7C9AF7-CC3F-D742-B03F-590E0463262F}</author>
+    <author>tc={C04ACB7A-C4AD-5E4F-A9F3-0083180CB473}</author>
   </authors>
   <commentList>
     <comment ref="X1" authorId="0" shapeId="0" xr:uid="{B8B118CB-23C6-4556-9470-64A59EB595D7}">
@@ -115,12 +117,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{4E7C9AF7-CC3F-D742-B03F-590E0463262F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Search Parameter web page link</t>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="2" shapeId="0" xr:uid="{C04ACB7A-C4AD-5E4F-A9F3-0083180CB473}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Search Parameter Canonical URL</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Element</t>
   </si>
@@ -584,12 +602,27 @@
   <si>
     <t>ResourceType</t>
   </si>
+  <si>
+    <t>sp_url</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>support searching a patient based on FHIR ID</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/us/core/SearchParameter-us-core-patient-id.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/SearchParameter/us-core-patient-id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +770,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -775,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -830,6 +877,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -847,6 +896,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Corey A Spears" id="{D1B4CEE3-D437-244F-9704-A732AD74387A}" userId="S::cspears@mitre.org::e1c343ca-7730-4a5f-9920-d4ce3bab4bb7" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,11 +1199,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AB1" dT="2021-11-29T19:19:10.57" personId="{D1B4CEE3-D437-244F-9704-A732AD74387A}" id="{4E7C9AF7-CC3F-D742-B03F-590E0463262F}">
+    <text>Search Parameter web page link</text>
+  </threadedComment>
+  <threadedComment ref="AC1" dT="2021-11-29T19:18:50.06" personId="{D1B4CEE3-D437-244F-9704-A732AD74387A}" id="{C04ACB7A-C4AD-5E4F-A9F3-0083180CB473}">
+    <text>Search Parameter Canonical URL</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C527BFB-CCF4-354D-B696-43330F2FE9C6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2424,13 +2490,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2464,7 +2530,7 @@
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -2549,8 +2615,11 @@
       <c r="AB1" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AC1" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="12" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2597,7 +2666,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2614,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="str">
-        <f t="shared" ref="F3:F8" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+        <f t="shared" ref="F3:F9" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -2644,7 +2713,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2692,7 +2761,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" ht="61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="12" customFormat="1" ht="61" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2745,7 +2814,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2775,7 +2844,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="12" t="str">
-        <f t="shared" ref="J6" si="2">B6&amp;"."&amp;C6</f>
+        <f t="shared" ref="J6:J7" si="2">B6&amp;"."&amp;C6</f>
         <v>!EXAMPLE STATUS SEARCH.status</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -2792,7 +2861,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2800,16 +2869,16 @@
         <v>65</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F7" si="4">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -2819,11 +2888,11 @@
         <v>57</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J7" s="12" t="str">
-        <f t="shared" ref="J7:J8" si="4">B7&amp;"."&amp;C7</f>
-        <v>!Patient.address</v>
+        <f t="shared" si="2"/>
+        <v>!Patient._id</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>57</v>
@@ -2832,30 +2901,29 @@
         <v>57</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="12" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
-        <v>SearchParameter-us-core-!patient-address.html</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB7" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
+      <c r="C8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2871,8 +2939,8 @@
         <v>61</v>
       </c>
       <c r="J8" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>!Patient.telecom</v>
+        <f t="shared" ref="J8:J9" si="5">B8&amp;"."&amp;C8</f>
+        <v>!Patient.address</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>57</v>
@@ -2881,62 +2949,107 @@
         <v>57</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>82</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Z8" s="13"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="12" t="str">
-        <f t="shared" ref="AB8" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+        <v>SearchParameter-us-core-!patient-address.html</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>!Patient.telecom</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="12" t="str">
+        <f t="shared" ref="AB9" si="6">"SearchParameter-us-core-"&amp;LOWER((B9)&amp;"-"&amp;C9&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="29"/>
-      <c r="Y9" s="16"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="AC9" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="29"/>
       <c r="Y10" s="16"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="Y11" s="16"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="Y12" s="16"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="Y13" s="16"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="Y14" s="16"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="Y15" s="16"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2957,13 +3070,23 @@
       <c r="Y18" s="16"/>
       <c r="AB18" s="1"/>
     </row>
+    <row r="19" spans="7:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="Y19" s="16"/>
+      <c r="AB19" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AB8" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA8">
+  <autoFilter ref="A1:AC1" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AA9">
     <sortCondition ref="B1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="AB7" r:id="rId1" xr:uid="{18539589-10B5-D04E-9D78-E2FBD5513F6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>